--- a/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO_REC_100.xlsx
+++ b/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO_REC_100.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado07\guion13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19203" windowHeight="8957" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
   <si>
     <t>Editor:</t>
   </si>
@@ -508,29 +513,23 @@
     <t>Germán Cuervo V.</t>
   </si>
   <si>
-    <t>CN_07_13_CO_REC100_F1.JPG</t>
-  </si>
-  <si>
     <t>Ilustración</t>
   </si>
   <si>
-    <t>CN_07_13_CO_REC100_F2.JPG</t>
-  </si>
-  <si>
     <t>CN_07_13_REC100</t>
   </si>
   <si>
-    <t>Interativo</t>
+    <t>Ver observaciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1250,7 +1249,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1434,9 +1433,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1743,6 +1739,505 @@
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$20" fmlaRange="$J$4:$J$19" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>14362</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>86174</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>473956</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>430869</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>14362</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>62237</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>473956</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>406932</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1019724</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Drop Down 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1014936</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>833014</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>4787</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>837801</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Drop Down 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>4787</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>837801</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Drop Down 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>19150</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>4787</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1038873</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>234584</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1048448</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>4787</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>866526</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>234584</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Drop Down 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>14362</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>4787</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>4787</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>234584</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2066,18 +2561,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.0625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
@@ -2093,7 +2588,7 @@
     <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2105,47 +2600,47 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="F2" s="88">
+      <c r="D2" s="95"/>
+      <c r="F2" s="87">
         <v>42074</v>
       </c>
-      <c r="G2" s="89"/>
+      <c r="G2" s="88"/>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="96">
         <v>7</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
+      <c r="D3" s="97"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="5"/>
       <c r="F4" s="46" t="s">
         <v>54</v>
@@ -2158,15 +2653,15 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="102"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="5"/>
       <c r="F5" s="44" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2180,7 +2675,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2193,13 +2688,13 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="B7" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="87" t="s">
-        <v>149</v>
+      <c r="C7" s="86" t="s">
+        <v>147</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>38</v>
@@ -2211,18 +2706,18 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="17"/>
       <c r="K8" s="11"/>
       <c r="L8" s="2"/>
@@ -2231,7 +2726,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1">
+    <row r="9" spans="1:16" ht="26.05" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
         <v>1</v>
       </c>
@@ -2266,25 +2761,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A10" s="86" t="s">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="75.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f t="shared" ref="C10:C27" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Recurso F13</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="73"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="13" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <v>CN_07_13_REC100_IMG01.jpg</v>
       </c>
       <c r="G10" s="13" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>800 x 460 px</v>
       </c>
       <c r="H10" s="13" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
@@ -2294,48 +2792,58 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="73"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="77.25" customHeight="1">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="77.3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="str">
+        <f t="shared" ref="A11:A30" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1),MID(A10,4,2)+1)),"")</f>
+        <v>IMG02</v>
+      </c>
+      <c r="B11" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="13" t="s">
-        <v>150</v>
+      <c r="C11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Recurso F13</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="73"/>
+        <v>146</v>
+      </c>
+      <c r="E11" s="72"/>
       <c r="F11" s="13" t="str">
-        <f t="shared" ref="F11:F74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" ref="F11:F74" si="2">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_07_13_REC100_IMG02.jpg</v>
       </c>
       <c r="G11" s="13" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>800 x 460 px</v>
       </c>
       <c r="H11" s="13" t="str">
-        <f t="shared" ref="H11:H74" si="1">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H11:H74" si="3">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I11" s="13" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="81"/>
+      <c r="J11" s="80"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="71"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G12" s="13" t="str">
@@ -2343,24 +2851,30 @@
         <v/>
       </c>
       <c r="H12" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I12" s="13" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="81"/>
+      <c r="J12" s="80"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="71"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G13" s="13" t="str">
@@ -2368,24 +2882,30 @@
         <v/>
       </c>
       <c r="H13" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I13" s="13" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J13" s="82"/>
+      <c r="J13" s="81"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G14" s="13" t="str">
@@ -2393,24 +2913,30 @@
         <v/>
       </c>
       <c r="H14" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I14" s="13" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J14" s="81"/>
+      <c r="J14" s="80"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G15" s="13" t="str">
@@ -2418,24 +2944,30 @@
         <v/>
       </c>
       <c r="H15" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I15" s="13" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J15" s="81"/>
+      <c r="J15" s="80"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B16" s="76"/>
+      <c r="C16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G16" s="13" t="str">
@@ -2443,24 +2975,30 @@
         <v/>
       </c>
       <c r="H16" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I16" s="13" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J16" s="83"/>
+      <c r="J16" s="82"/>
       <c r="K16" s="28"/>
     </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
+    <row r="17" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B17" s="76"/>
+      <c r="C17" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G17" s="13" t="str">
@@ -2468,24 +3006,30 @@
         <v/>
       </c>
       <c r="H17" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I17" s="13" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J17" s="84"/>
+      <c r="J17" s="83"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B18" s="76"/>
+      <c r="C18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G18" s="13" t="str">
@@ -2493,24 +3037,30 @@
         <v/>
       </c>
       <c r="H18" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I18" s="13" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J18" s="84"/>
+      <c r="J18" s="83"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G19" s="13" t="str">
@@ -2518,24 +3068,30 @@
         <v/>
       </c>
       <c r="H19" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I19" s="13" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="83"/>
+      <c r="J19" s="82"/>
       <c r="K19" s="28"/>
     </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B20" s="76"/>
+      <c r="C20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G20" s="13" t="str">
@@ -2543,24 +3099,30 @@
         <v/>
       </c>
       <c r="H20" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I20" s="13" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J20" s="81"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B21" s="78"/>
+      <c r="C21" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G21" s="13" t="str">
@@ -2568,24 +3130,30 @@
         <v/>
       </c>
       <c r="H21" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I21" s="13" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J21" s="84"/>
+      <c r="J21" s="83"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
+    <row r="22" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G22" s="13" t="str">
@@ -2593,24 +3161,30 @@
         <v/>
       </c>
       <c r="H22" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I22" s="13" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J22" s="85"/>
+      <c r="J22" s="84"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B23" s="76"/>
+      <c r="C23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G23" s="13" t="str">
@@ -2618,24 +3192,30 @@
         <v/>
       </c>
       <c r="H23" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I23" s="13" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J23" s="81"/>
+      <c r="J23" s="80"/>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
+    <row r="24" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B24" s="71"/>
+      <c r="C24" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G24" s="13" t="str">
@@ -2643,24 +3223,30 @@
         <v/>
       </c>
       <c r="H24" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I24" s="13" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J24" s="73"/>
+      <c r="J24" s="72"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
+    <row r="25" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B25" s="76"/>
+      <c r="C25" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G25" s="13" t="str">
@@ -2668,24 +3254,30 @@
         <v/>
       </c>
       <c r="H25" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I25" s="13" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J25" s="73"/>
+      <c r="J25" s="72"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B26" s="76"/>
+      <c r="C26" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G26" s="13" t="str">
@@ -2693,30 +3285,30 @@
         <v/>
       </c>
       <c r="H26" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I26" s="13" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J26" s="73"/>
+      <c r="J26" s="72"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" s="11" customFormat="1">
+    <row r="27" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="str">
-        <f t="shared" ref="A27:A83" si="2">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(LEFT(A26,3),IF(MID(A26,4,2)+1&lt;10,CONCATENATE("0",MID(A26,4,2)+1),MID(A26,4,2)+1)),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="26" t="str">
-        <f t="shared" ref="C27:C74" si="3">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G27" s="13" t="str">
@@ -2724,7 +3316,7 @@
         <v/>
       </c>
       <c r="H27" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I27" s="13" t="str">
@@ -2734,20 +3326,20 @@
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
     </row>
-    <row r="28" spans="1:11" s="11" customFormat="1">
+    <row r="28" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C27:C74" si="4">IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G28" s="13" t="str">
@@ -2755,7 +3347,7 @@
         <v/>
       </c>
       <c r="H28" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I28" s="13" t="str">
@@ -2765,20 +3357,20 @@
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11" s="11" customFormat="1">
+    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G29" s="13" t="str">
@@ -2786,7 +3378,7 @@
         <v/>
       </c>
       <c r="H29" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I29" s="13" t="str">
@@ -2796,20 +3388,20 @@
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:11" s="11" customFormat="1">
+    <row r="30" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G30" s="13" t="str">
@@ -2817,7 +3409,7 @@
         <v/>
       </c>
       <c r="H30" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I30" s="13" t="str">
@@ -2827,20 +3419,20 @@
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" s="11" customFormat="1">
+    <row r="31" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A27:A83" si="5">IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),CONCATENATE(LEFT(A30,3),IF(MID(A30,4,2)+1&lt;10,CONCATENATE("0",MID(A30,4,2)+1),MID(A30,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G31" s="13" t="str">
@@ -2848,7 +3440,7 @@
         <v/>
       </c>
       <c r="H31" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I31" s="13" t="str">
@@ -2858,20 +3450,20 @@
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11" s="11" customFormat="1">
+    <row r="32" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G32" s="13" t="str">
@@ -2879,7 +3471,7 @@
         <v/>
       </c>
       <c r="H32" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I32" s="13" t="str">
@@ -2889,20 +3481,20 @@
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11" s="11" customFormat="1">
+    <row r="33" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G33" s="13" t="str">
@@ -2910,7 +3502,7 @@
         <v/>
       </c>
       <c r="H33" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I33" s="13" t="str">
@@ -2920,20 +3512,20 @@
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
     </row>
-    <row r="34" spans="1:11" s="11" customFormat="1">
+    <row r="34" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G34" s="13" t="str">
@@ -2941,7 +3533,7 @@
         <v/>
       </c>
       <c r="H34" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I34" s="13" t="str">
@@ -2951,20 +3543,20 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
     </row>
-    <row r="35" spans="1:11" s="11" customFormat="1">
+    <row r="35" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G35" s="13" t="str">
@@ -2972,7 +3564,7 @@
         <v/>
       </c>
       <c r="H35" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I35" s="13" t="str">
@@ -2982,20 +3574,20 @@
       <c r="J35" s="13"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" s="11" customFormat="1">
+    <row r="36" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G36" s="13" t="str">
@@ -3003,7 +3595,7 @@
         <v/>
       </c>
       <c r="H36" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I36" s="13" t="str">
@@ -3013,20 +3605,20 @@
       <c r="J36" s="13"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" s="11" customFormat="1">
+    <row r="37" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G37" s="13" t="str">
@@ -3034,7 +3626,7 @@
         <v/>
       </c>
       <c r="H37" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I37" s="13" t="str">
@@ -3044,20 +3636,20 @@
       <c r="J37" s="21"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" s="11" customFormat="1">
+    <row r="38" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G38" s="13" t="str">
@@ -3065,7 +3657,7 @@
         <v/>
       </c>
       <c r="H38" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I38" s="13" t="str">
@@ -3075,20 +3667,20 @@
       <c r="J38" s="22"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" s="11" customFormat="1">
+    <row r="39" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G39" s="13" t="str">
@@ -3096,7 +3688,7 @@
         <v/>
       </c>
       <c r="H39" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I39" s="13" t="str">
@@ -3106,20 +3698,20 @@
       <c r="J39" s="13"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" s="11" customFormat="1">
+    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G40" s="13" t="str">
@@ -3127,7 +3719,7 @@
         <v/>
       </c>
       <c r="H40" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I40" s="13" t="str">
@@ -3137,20 +3729,20 @@
       <c r="J40" s="13"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" s="11" customFormat="1">
+    <row r="41" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G41" s="13" t="str">
@@ -3158,7 +3750,7 @@
         <v/>
       </c>
       <c r="H41" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I41" s="13" t="str">
@@ -3168,20 +3760,20 @@
       <c r="J41" s="13"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" s="11" customFormat="1">
+    <row r="42" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G42" s="13" t="str">
@@ -3189,7 +3781,7 @@
         <v/>
       </c>
       <c r="H42" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I42" s="13" t="str">
@@ -3199,20 +3791,20 @@
       <c r="J42" s="13"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" s="11" customFormat="1">
+    <row r="43" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G43" s="13" t="str">
@@ -3220,7 +3812,7 @@
         <v/>
       </c>
       <c r="H43" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I43" s="13" t="str">
@@ -3230,20 +3822,20 @@
       <c r="J43" s="13"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" s="11" customFormat="1">
+    <row r="44" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G44" s="13" t="str">
@@ -3251,7 +3843,7 @@
         <v/>
       </c>
       <c r="H44" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I44" s="13" t="str">
@@ -3261,20 +3853,20 @@
       <c r="J44" s="13"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" s="11" customFormat="1">
+    <row r="45" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G45" s="13" t="str">
@@ -3282,7 +3874,7 @@
         <v/>
       </c>
       <c r="H45" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I45" s="13" t="str">
@@ -3292,20 +3884,20 @@
       <c r="J45" s="13"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" s="11" customFormat="1">
+    <row r="46" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G46" s="13" t="str">
@@ -3313,7 +3905,7 @@
         <v/>
       </c>
       <c r="H46" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I46" s="13" t="str">
@@ -3323,20 +3915,20 @@
       <c r="J46" s="13"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" s="11" customFormat="1">
+    <row r="47" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G47" s="13" t="str">
@@ -3344,7 +3936,7 @@
         <v/>
       </c>
       <c r="H47" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I47" s="13" t="str">
@@ -3354,20 +3946,20 @@
       <c r="J47" s="13"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" s="11" customFormat="1">
+    <row r="48" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G48" s="13" t="str">
@@ -3375,7 +3967,7 @@
         <v/>
       </c>
       <c r="H48" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I48" s="13" t="str">
@@ -3385,20 +3977,20 @@
       <c r="J48" s="13"/>
       <c r="K48" s="14"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1">
+    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G49" s="13" t="str">
@@ -3406,7 +3998,7 @@
         <v/>
       </c>
       <c r="H49" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I49" s="13" t="str">
@@ -3416,20 +4008,20 @@
       <c r="J49" s="13"/>
       <c r="K49" s="14"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1">
+    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G50" s="13" t="str">
@@ -3437,7 +4029,7 @@
         <v/>
       </c>
       <c r="H50" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I50" s="13" t="str">
@@ -3447,20 +4039,20 @@
       <c r="J50" s="13"/>
       <c r="K50" s="14"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1">
+    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G51" s="13" t="str">
@@ -3468,7 +4060,7 @@
         <v/>
       </c>
       <c r="H51" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I51" s="13" t="str">
@@ -3478,20 +4070,20 @@
       <c r="J51" s="13"/>
       <c r="K51" s="14"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1">
+    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G52" s="13" t="str">
@@ -3499,7 +4091,7 @@
         <v/>
       </c>
       <c r="H52" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I52" s="13" t="str">
@@ -3509,20 +4101,20 @@
       <c r="J52" s="13"/>
       <c r="K52" s="14"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1">
+    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G53" s="13" t="str">
@@ -3530,7 +4122,7 @@
         <v/>
       </c>
       <c r="H53" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I53" s="13" t="str">
@@ -3540,20 +4132,20 @@
       <c r="J53" s="13"/>
       <c r="K53" s="14"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1">
+    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G54" s="13" t="str">
@@ -3561,7 +4153,7 @@
         <v/>
       </c>
       <c r="H54" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I54" s="13" t="str">
@@ -3571,20 +4163,20 @@
       <c r="J54" s="13"/>
       <c r="K54" s="14"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1">
+    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G55" s="13" t="str">
@@ -3592,7 +4184,7 @@
         <v/>
       </c>
       <c r="H55" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I55" s="13" t="str">
@@ -3602,20 +4194,20 @@
       <c r="J55" s="13"/>
       <c r="K55" s="14"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1">
+    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G56" s="13" t="str">
@@ -3623,7 +4215,7 @@
         <v/>
       </c>
       <c r="H56" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I56" s="13" t="str">
@@ -3633,20 +4225,20 @@
       <c r="J56" s="13"/>
       <c r="K56" s="14"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1">
+    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G57" s="13" t="str">
@@ -3654,7 +4246,7 @@
         <v/>
       </c>
       <c r="H57" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I57" s="13" t="str">
@@ -3664,20 +4256,20 @@
       <c r="J57" s="13"/>
       <c r="K57" s="14"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1">
+    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G58" s="13" t="str">
@@ -3685,7 +4277,7 @@
         <v/>
       </c>
       <c r="H58" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I58" s="13" t="str">
@@ -3695,20 +4287,20 @@
       <c r="J58" s="13"/>
       <c r="K58" s="14"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1">
+    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G59" s="13" t="str">
@@ -3716,7 +4308,7 @@
         <v/>
       </c>
       <c r="H59" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I59" s="13" t="str">
@@ -3726,20 +4318,20 @@
       <c r="J59" s="13"/>
       <c r="K59" s="14"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1">
+    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G60" s="13" t="str">
@@ -3747,7 +4339,7 @@
         <v/>
       </c>
       <c r="H60" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I60" s="13" t="str">
@@ -3757,20 +4349,20 @@
       <c r="J60" s="13"/>
       <c r="K60" s="14"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1">
+    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G61" s="13" t="str">
@@ -3778,7 +4370,7 @@
         <v/>
       </c>
       <c r="H61" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I61" s="13" t="str">
@@ -3788,20 +4380,20 @@
       <c r="J61" s="13"/>
       <c r="K61" s="14"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1">
+    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G62" s="13" t="str">
@@ -3809,7 +4401,7 @@
         <v/>
       </c>
       <c r="H62" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I62" s="13" t="str">
@@ -3819,20 +4411,20 @@
       <c r="J62" s="13"/>
       <c r="K62" s="14"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1">
+    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G63" s="13" t="str">
@@ -3840,7 +4432,7 @@
         <v/>
       </c>
       <c r="H63" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I63" s="13" t="str">
@@ -3850,20 +4442,20 @@
       <c r="J63" s="13"/>
       <c r="K63" s="14"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1">
+    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G64" s="13" t="str">
@@ -3871,7 +4463,7 @@
         <v/>
       </c>
       <c r="H64" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I64" s="13" t="str">
@@ -3881,20 +4473,20 @@
       <c r="J64" s="13"/>
       <c r="K64" s="14"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1">
+    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G65" s="13" t="str">
@@ -3902,7 +4494,7 @@
         <v/>
       </c>
       <c r="H65" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I65" s="13" t="str">
@@ -3912,20 +4504,20 @@
       <c r="J65" s="13"/>
       <c r="K65" s="14"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1">
+    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G66" s="13" t="str">
@@ -3933,7 +4525,7 @@
         <v/>
       </c>
       <c r="H66" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I66" s="13" t="str">
@@ -3943,20 +4535,20 @@
       <c r="J66" s="13"/>
       <c r="K66" s="14"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1">
+    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G67" s="13" t="str">
@@ -3964,7 +4556,7 @@
         <v/>
       </c>
       <c r="H67" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I67" s="13" t="str">
@@ -3974,20 +4566,20 @@
       <c r="J67" s="13"/>
       <c r="K67" s="14"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1">
+    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G68" s="13" t="str">
@@ -3995,7 +4587,7 @@
         <v/>
       </c>
       <c r="H68" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I68" s="13" t="str">
@@ -4005,20 +4597,20 @@
       <c r="J68" s="13"/>
       <c r="K68" s="14"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1">
+    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G69" s="13" t="str">
@@ -4026,7 +4618,7 @@
         <v/>
       </c>
       <c r="H69" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I69" s="13" t="str">
@@ -4036,20 +4628,20 @@
       <c r="J69" s="13"/>
       <c r="K69" s="14"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1">
+    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G70" s="13" t="str">
@@ -4057,7 +4649,7 @@
         <v/>
       </c>
       <c r="H70" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I70" s="13" t="str">
@@ -4067,20 +4659,20 @@
       <c r="J70" s="13"/>
       <c r="K70" s="14"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1">
+    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G71" s="13" t="str">
@@ -4088,7 +4680,7 @@
         <v/>
       </c>
       <c r="H71" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I71" s="13" t="str">
@@ -4098,20 +4690,20 @@
       <c r="J71" s="13"/>
       <c r="K71" s="14"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1">
+    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G72" s="13" t="str">
@@ -4119,7 +4711,7 @@
         <v/>
       </c>
       <c r="H72" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I72" s="13" t="str">
@@ -4129,20 +4721,20 @@
       <c r="J72" s="13"/>
       <c r="K72" s="14"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1">
+    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G73" s="13" t="str">
@@ -4150,7 +4742,7 @@
         <v/>
       </c>
       <c r="H73" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I73" s="13" t="str">
@@ -4160,20 +4752,20 @@
       <c r="J73" s="13"/>
       <c r="K73" s="14"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1">
+    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G74" s="13" t="str">
@@ -4181,7 +4773,7 @@
         <v/>
       </c>
       <c r="H74" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I74" s="13" t="str">
@@ -4191,20 +4783,20 @@
       <c r="J74" s="13"/>
       <c r="K74" s="14"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1">
+    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="26" t="str">
-        <f t="shared" ref="C75:C108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C75:C108" si="6">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13" t="str">
-        <f t="shared" ref="F75:F108" si="5">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F75:F108" si="7">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G75" s="13" t="str">
@@ -4212,7 +4804,7 @@
         <v/>
       </c>
       <c r="H75" s="13" t="str">
-        <f t="shared" ref="H75:H108" si="6">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H75:H108" si="8">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I75" s="13" t="str">
@@ -4222,20 +4814,20 @@
       <c r="J75" s="13"/>
       <c r="K75" s="14"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1">
+    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G76" s="13" t="str">
@@ -4243,7 +4835,7 @@
         <v/>
       </c>
       <c r="H76" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I76" s="13" t="str">
@@ -4253,20 +4845,20 @@
       <c r="J76" s="13"/>
       <c r="K76" s="14"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1">
+    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G77" s="13" t="str">
@@ -4274,7 +4866,7 @@
         <v/>
       </c>
       <c r="H77" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I77" s="13" t="str">
@@ -4284,20 +4876,20 @@
       <c r="J77" s="13"/>
       <c r="K77" s="14"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1">
+    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G78" s="13" t="str">
@@ -4305,7 +4897,7 @@
         <v/>
       </c>
       <c r="H78" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I78" s="13" t="str">
@@ -4315,20 +4907,20 @@
       <c r="J78" s="13"/>
       <c r="K78" s="14"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1">
+    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G79" s="13" t="str">
@@ -4336,7 +4928,7 @@
         <v/>
       </c>
       <c r="H79" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I79" s="13" t="str">
@@ -4346,20 +4938,20 @@
       <c r="J79" s="13"/>
       <c r="K79" s="14"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1">
+    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G80" s="13" t="str">
@@ -4367,7 +4959,7 @@
         <v/>
       </c>
       <c r="H80" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I80" s="13" t="str">
@@ -4377,20 +4969,20 @@
       <c r="J80" s="13"/>
       <c r="K80" s="14"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1">
+    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G81" s="13" t="str">
@@ -4398,7 +4990,7 @@
         <v/>
       </c>
       <c r="H81" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I81" s="13" t="str">
@@ -4408,20 +5000,20 @@
       <c r="J81" s="13"/>
       <c r="K81" s="14"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1">
+    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G82" s="13" t="str">
@@ -4429,7 +5021,7 @@
         <v/>
       </c>
       <c r="H82" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I82" s="13" t="str">
@@ -4439,20 +5031,20 @@
       <c r="J82" s="13"/>
       <c r="K82" s="14"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1">
+    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G83" s="13" t="str">
@@ -4460,7 +5052,7 @@
         <v/>
       </c>
       <c r="H83" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I83" s="13" t="str">
@@ -4470,20 +5062,20 @@
       <c r="J83" s="13"/>
       <c r="K83" s="14"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1">
+    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="str">
-        <f t="shared" ref="A84:A108" si="7">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
+        <f t="shared" ref="A84:A108" si="9">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G84" s="13" t="str">
@@ -4491,7 +5083,7 @@
         <v/>
       </c>
       <c r="H84" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I84" s="13" t="str">
@@ -4501,20 +5093,20 @@
       <c r="J84" s="13"/>
       <c r="K84" s="14"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1">
+    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G85" s="13" t="str">
@@ -4522,7 +5114,7 @@
         <v/>
       </c>
       <c r="H85" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I85" s="13" t="str">
@@ -4532,20 +5124,20 @@
       <c r="J85" s="13"/>
       <c r="K85" s="14"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1">
+    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G86" s="13" t="str">
@@ -4553,7 +5145,7 @@
         <v/>
       </c>
       <c r="H86" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I86" s="13" t="str">
@@ -4563,20 +5155,20 @@
       <c r="J86" s="13"/>
       <c r="K86" s="14"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1">
+    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G87" s="13" t="str">
@@ -4584,7 +5176,7 @@
         <v/>
       </c>
       <c r="H87" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I87" s="13" t="str">
@@ -4594,20 +5186,20 @@
       <c r="J87" s="13"/>
       <c r="K87" s="14"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1">
+    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G88" s="13" t="str">
@@ -4615,7 +5207,7 @@
         <v/>
       </c>
       <c r="H88" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I88" s="13" t="str">
@@ -4625,20 +5217,20 @@
       <c r="J88" s="13"/>
       <c r="K88" s="14"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1">
+    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G89" s="13" t="str">
@@ -4646,7 +5238,7 @@
         <v/>
       </c>
       <c r="H89" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I89" s="13" t="str">
@@ -4656,20 +5248,20 @@
       <c r="J89" s="13"/>
       <c r="K89" s="14"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1">
+    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G90" s="13" t="str">
@@ -4677,7 +5269,7 @@
         <v/>
       </c>
       <c r="H90" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I90" s="13" t="str">
@@ -4687,20 +5279,20 @@
       <c r="J90" s="13"/>
       <c r="K90" s="14"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1">
+    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G91" s="13" t="str">
@@ -4708,7 +5300,7 @@
         <v/>
       </c>
       <c r="H91" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I91" s="13" t="str">
@@ -4718,20 +5310,20 @@
       <c r="J91" s="13"/>
       <c r="K91" s="14"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1">
+    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G92" s="13" t="str">
@@ -4739,7 +5331,7 @@
         <v/>
       </c>
       <c r="H92" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I92" s="13" t="str">
@@ -4749,20 +5341,20 @@
       <c r="J92" s="13"/>
       <c r="K92" s="14"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1">
+    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G93" s="13" t="str">
@@ -4770,7 +5362,7 @@
         <v/>
       </c>
       <c r="H93" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I93" s="13" t="str">
@@ -4780,20 +5372,20 @@
       <c r="J93" s="13"/>
       <c r="K93" s="14"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1">
+    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G94" s="13" t="str">
@@ -4801,7 +5393,7 @@
         <v/>
       </c>
       <c r="H94" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I94" s="13" t="str">
@@ -4811,20 +5403,20 @@
       <c r="J94" s="13"/>
       <c r="K94" s="14"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1">
+    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G95" s="13" t="str">
@@ -4832,7 +5424,7 @@
         <v/>
       </c>
       <c r="H95" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I95" s="13" t="str">
@@ -4842,20 +5434,20 @@
       <c r="J95" s="13"/>
       <c r="K95" s="14"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1">
+    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G96" s="13" t="str">
@@ -4863,7 +5455,7 @@
         <v/>
       </c>
       <c r="H96" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I96" s="13" t="str">
@@ -4873,20 +5465,20 @@
       <c r="J96" s="13"/>
       <c r="K96" s="14"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1">
+    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G97" s="13" t="str">
@@ -4894,7 +5486,7 @@
         <v/>
       </c>
       <c r="H97" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I97" s="13" t="str">
@@ -4904,20 +5496,20 @@
       <c r="J97" s="13"/>
       <c r="K97" s="14"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1">
+    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G98" s="13" t="str">
@@ -4925,7 +5517,7 @@
         <v/>
       </c>
       <c r="H98" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I98" s="13" t="str">
@@ -4935,20 +5527,20 @@
       <c r="J98" s="13"/>
       <c r="K98" s="14"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1">
+    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G99" s="13" t="str">
@@ -4956,7 +5548,7 @@
         <v/>
       </c>
       <c r="H99" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I99" s="13" t="str">
@@ -4966,20 +5558,20 @@
       <c r="J99" s="13"/>
       <c r="K99" s="14"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1">
+    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G100" s="13" t="str">
@@ -4987,7 +5579,7 @@
         <v/>
       </c>
       <c r="H100" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I100" s="13" t="str">
@@ -4997,20 +5589,20 @@
       <c r="J100" s="13"/>
       <c r="K100" s="14"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1">
+    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
       <c r="F101" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G101" s="13" t="str">
@@ -5018,7 +5610,7 @@
         <v/>
       </c>
       <c r="H101" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I101" s="13" t="str">
@@ -5028,20 +5620,20 @@
       <c r="J101" s="13"/>
       <c r="K101" s="14"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1">
+    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G102" s="13" t="str">
@@ -5049,7 +5641,7 @@
         <v/>
       </c>
       <c r="H102" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I102" s="13" t="str">
@@ -5059,20 +5651,20 @@
       <c r="J102" s="13"/>
       <c r="K102" s="14"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1">
+    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G103" s="13" t="str">
@@ -5080,7 +5672,7 @@
         <v/>
       </c>
       <c r="H103" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I103" s="13" t="str">
@@ -5090,20 +5682,20 @@
       <c r="J103" s="13"/>
       <c r="K103" s="14"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1">
+    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G104" s="13" t="str">
@@ -5111,7 +5703,7 @@
         <v/>
       </c>
       <c r="H104" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I104" s="13" t="str">
@@ -5121,20 +5713,20 @@
       <c r="J104" s="13"/>
       <c r="K104" s="14"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1">
+    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G105" s="13" t="str">
@@ -5142,7 +5734,7 @@
         <v/>
       </c>
       <c r="H105" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I105" s="13" t="str">
@@ -5152,20 +5744,20 @@
       <c r="J105" s="13"/>
       <c r="K105" s="14"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1">
+    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G106" s="13" t="str">
@@ -5173,7 +5765,7 @@
         <v/>
       </c>
       <c r="H106" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I106" s="13" t="str">
@@ -5183,20 +5775,20 @@
       <c r="J106" s="13"/>
       <c r="K106" s="14"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1">
+    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G107" s="13" t="str">
@@ -5204,7 +5796,7 @@
         <v/>
       </c>
       <c r="H107" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I107" s="13" t="str">
@@ -5214,20 +5806,20 @@
       <c r="J107" s="13"/>
       <c r="K107" s="14"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1">
+    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G108" s="13" t="str">
@@ -5235,7 +5827,7 @@
         <v/>
       </c>
       <c r="H108" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I108" s="13" t="str">
@@ -5281,7 +5873,7 @@
       <formula>$G$4="Recurso"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
@@ -5304,16 +5896,62 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C26">
-      <formula1>"Cuaderno de Estudio,Ejercicio Genérico,Interativo,Diaporama"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId3"/>
-    <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId4"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>14362</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>86174</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>473956</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>430869</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>14362</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>62237</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>473956</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>406932</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5324,7 +5962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5332,7 +5970,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="72.25" style="29" customWidth="1"/>
     <col min="2" max="2" width="11" style="29"/>
@@ -5343,38 +5981,38 @@
     <col min="12" max="16384" width="11" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="37" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="38"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="39"/>
     </row>
-    <row r="3" spans="1:11" ht="63">
+    <row r="3" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
       <c r="A3" s="40" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="38"/>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="39"/>
       <c r="H3" s="29" t="s">
         <v>17</v>
@@ -5389,7 +6027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
+    <row r="4" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A4" s="37" t="s">
         <v>43</v>
       </c>
@@ -5417,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="40" t="s">
         <v>44</v>
       </c>
@@ -5425,11 +6063,11 @@
       <c r="C5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="117" t="str">
+      <c r="D5" s="116" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="118"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="39"/>
       <c r="H5" s="29" t="s">
         <v>21</v>
@@ -5444,7 +6082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
+    <row r="6" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
@@ -5466,7 +6104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
+    <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="40" t="s">
         <v>10</v>
       </c>
@@ -5474,12 +6112,12 @@
       <c r="C7" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="103" t="str">
+      <c r="D7" s="102" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
       <c r="H7" s="29" t="s">
         <v>23</v>
       </c>
@@ -5493,7 +6131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
+    <row r="8" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
       <c r="A8" s="40" t="s">
         <v>52</v>
       </c>
@@ -5512,7 +6150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
+    <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
       <c r="A9" s="40" t="s">
         <v>11</v>
       </c>
@@ -5531,7 +6169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
+    <row r="10" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="41" t="s">
         <v>35</v>
       </c>
@@ -5550,7 +6188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="I11" s="29" t="s">
         <v>31</v>
       </c>
@@ -5561,7 +6199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+    <row r="12" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="29" t="s">
         <v>36</v>
       </c>
@@ -5572,15 +6210,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="105" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A13" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
       <c r="I13" s="29" t="s">
         <v>32</v>
       </c>
@@ -5591,7 +6229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+    <row r="14" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="40"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -5608,17 +6246,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="38"/>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
       <c r="J15" s="29">
         <v>12</v>
       </c>
@@ -5626,7 +6264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1">
+    <row r="16" spans="1:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="40" t="s">
         <v>46</v>
       </c>
@@ -5650,7 +6288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="37" t="s">
         <v>43</v>
       </c>
@@ -5658,12 +6296,12 @@
       <c r="C17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="111" t="str">
+      <c r="D17" s="110" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
       <c r="J17" s="29">
         <v>14</v>
       </c>
@@ -5671,7 +6309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="40" t="s">
         <v>47</v>
       </c>
@@ -5679,12 +6317,12 @@
       <c r="C18" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="103" t="str">
+      <c r="D18" s="102" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
       <c r="J18" s="29">
         <v>15</v>
       </c>
@@ -5692,7 +6330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" s="37" t="s">
         <v>9</v>
       </c>
@@ -5711,7 +6349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="41" t="s">
         <v>50</v>
       </c>
@@ -5733,7 +6371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H21" s="29" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -5750,122 +6388,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K22" s="29">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K23" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K24" s="29">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K25" s="29">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K26" s="29">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K27" s="29">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K28" s="29">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K29" s="29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K30" s="29">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K31" s="29">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K32" s="29">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K33" s="29">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K34" s="29">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K35" s="29">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K36" s="29">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K37" s="29">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K38" s="29">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K39" s="29">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K40" s="29">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K41" s="29">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K42" s="29">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K43" s="29">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K44" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K45" s="29" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -5885,12 +6523,173 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1019724</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1014936</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>833014</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>19150</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>4787</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1038873</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>234584</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1048448</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>4787</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>866526</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>234584</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>14362</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>4787</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>234584</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -5898,7 +6697,7 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="21" style="29" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="29" customWidth="1"/>
@@ -5914,42 +6713,42 @@
     <col min="12" max="16384" width="10.875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A1" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="48" t="s">
         <v>64</v>
       </c>
@@ -5960,7 +6759,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="50" customFormat="1">
+    <row r="3" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="49" t="s">
         <v>68</v>
       </c>
@@ -5984,7 +6783,7 @@
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="4" spans="1:11" s="50" customFormat="1">
+    <row r="4" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="51" t="s">
         <v>56</v>
       </c>
@@ -6012,7 +6811,7 @@
       </c>
       <c r="J4" s="51"/>
     </row>
-    <row r="5" spans="1:11" s="50" customFormat="1">
+    <row r="5" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="52" t="s">
         <v>76</v>
       </c>
@@ -6040,7 +6839,7 @@
       </c>
       <c r="J5" s="53"/>
     </row>
-    <row r="6" spans="1:11" s="50" customFormat="1">
+    <row r="6" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="51" t="s">
         <v>57</v>
       </c>
@@ -6072,7 +6871,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="50" customFormat="1" ht="25.5">
+    <row r="7" spans="1:11" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
       <c r="A7" s="51" t="s">
         <v>79</v>
       </c>
@@ -6100,7 +6899,7 @@
       </c>
       <c r="J7" s="51"/>
     </row>
-    <row r="8" spans="1:11" s="50" customFormat="1" ht="25.5">
+    <row r="8" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="51" t="s">
         <v>81</v>
       </c>
@@ -6128,7 +6927,7 @@
       </c>
       <c r="J8" s="51"/>
     </row>
-    <row r="9" spans="1:11" s="50" customFormat="1">
+    <row r="9" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="51" t="s">
         <v>83</v>
       </c>
@@ -6156,7 +6955,7 @@
       </c>
       <c r="J9" s="51"/>
     </row>
-    <row r="10" spans="1:11" s="50" customFormat="1">
+    <row r="10" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="51" t="s">
         <v>85</v>
       </c>
@@ -6182,7 +6981,7 @@
       </c>
       <c r="J10" s="51"/>
     </row>
-    <row r="11" spans="1:11" s="50" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
       <c r="A11" s="51" t="s">
         <v>88</v>
       </c>
@@ -6210,7 +7009,7 @@
       </c>
       <c r="J11" s="51"/>
     </row>
-    <row r="12" spans="1:11" s="50" customFormat="1">
+    <row r="12" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="51" t="s">
         <v>90</v>
       </c>
@@ -6238,7 +7037,7 @@
       </c>
       <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:11" ht="63">
+    <row r="13" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
       <c r="A13" s="54" t="s">
         <v>92</v>
       </c>
@@ -6265,7 +7064,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="54" t="s">
         <v>96</v>
       </c>
@@ -6289,7 +7088,7 @@
       </c>
       <c r="J14" s="54"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5">
+    <row r="15" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A15" s="54" t="s">
         <v>98</v>
       </c>
@@ -6316,7 +7115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
+    <row r="16" spans="1:11" ht="95" x14ac:dyDescent="0.5">
       <c r="A16" s="56" t="s">
         <v>102</v>
       </c>
@@ -6345,7 +7144,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
+    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.5">
       <c r="A17" s="51" t="s">
         <v>105</v>
       </c>
@@ -6374,12 +7173,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" s="60" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" s="61" t="s">
         <v>112</v>
       </c>
@@ -6392,7 +7191,7 @@
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="64" t="s">
         <v>113</v>
       </c>
@@ -6405,7 +7204,7 @@
       <c r="D22" s="65"/>
       <c r="E22" s="65"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="64" t="s">
         <v>114</v>
       </c>
@@ -6418,7 +7217,7 @@
       <c r="D23" s="65"/>
       <c r="E23" s="65"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5">
+    <row r="24" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A24" s="64" t="s">
         <v>115</v>
       </c>
@@ -6431,7 +7230,7 @@
       <c r="D24" s="65"/>
       <c r="E24" s="65"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" s="64" t="s">
         <v>116</v>
       </c>
@@ -6444,7 +7243,7 @@
       <c r="D25" s="65"/>
       <c r="E25" s="65"/>
     </row>
-    <row r="26" spans="1:11" ht="63">
+    <row r="26" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
       <c r="A26" s="64" t="s">
         <v>117</v>
       </c>
